--- a/reports/enrollment_form.xlsx
+++ b/reports/enrollment_form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3BB234-AE67-CE4A-87BA-25788AEB2DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDB8C63-AAB5-DB47-9A72-83E895CCB3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>BASIC EDUCATION ENROLLMENT FORM</t>
   </si>
@@ -284,12 +284,6 @@
     <t>Educational Attainment (Father)</t>
   </si>
   <si>
-    <t>(Last Name)                    (First Name)                (Middle Name)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      ,</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATE OF BIRTH     </t>
   </si>
   <si>
@@ -392,6 +386,9 @@
   </si>
   <si>
     <t xml:space="preserve">I hereby certify that the above information given are true and correct to the best of my knowledge and I allow the  Department of Education/ Sunbeam Christian School of Panabo, Inc. to use my child's details to create and/or update his/her learner profile in the Learner  Information System. The information herein shall be treated as confidential in compliance with the Data Privacy Act of 2012. </t>
+  </si>
+  <si>
+    <t>(Last Name)                                               (First Name)                                (Middle Name)</t>
   </si>
 </sst>
 </file>
@@ -775,6 +772,70 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,38 +878,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,43 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1738,19 +1735,19 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>63501</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>139700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Check Box 2" hidden="1">
+            <xdr:cNvPr id="3" name="Check Box 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1811,13 +1808,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Check Box 4" hidden="1">
+            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1872,7 +1869,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>558799</xdr:colOff>
+          <xdr:colOff>558800</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2000,15 +1997,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>454024</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>93663</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>4763</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2073,7 +2070,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>507999</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
@@ -2827,8 +2824,8 @@
   </sheetPr>
   <dimension ref="A2:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="160" zoomScaleNormal="55" zoomScaleSheetLayoutView="160" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="160" zoomScaleNormal="55" zoomScaleSheetLayoutView="160" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2843,47 +2840,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="25"/>
       <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="27"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
     </row>
     <row r="7" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -2899,13 +2896,13 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
+      <c r="A9" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
       <c r="G9" s="7" t="s">
         <v>35</v>
       </c>
@@ -2947,19 +2944,19 @@
     </row>
     <row r="13" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
     </row>
     <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2975,53 +2972,53 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+        <v>71</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3034,19 +3031,19 @@
     <row r="25" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="78"/>
+        <v>62</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="48"/>
       <c r="G26" s="1" t="s">
         <v>15</v>
       </c>
@@ -3056,10 +3053,10 @@
       <c r="I26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="84"/>
+      <c r="J26" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="50"/>
     </row>
     <row r="27" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
@@ -3075,16 +3072,16 @@
       <c r="A28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="61" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
@@ -3092,15 +3089,15 @@
       <c r="A29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55" t="s">
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="55"/>
+      <c r="H29" s="77"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
@@ -3108,11 +3105,11 @@
       <c r="A30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
       <c r="K30" s="10"/>
@@ -3124,10 +3121,10 @@
       <c r="G31" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
     </row>
     <row r="32" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:11" s="36" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3151,17 +3148,17 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
@@ -3170,17 +3167,17 @@
       <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
@@ -3190,35 +3187,35 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="48"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="70"/>
     </row>
     <row r="40" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="69"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="64"/>
     </row>
     <row r="42" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
@@ -3233,31 +3230,31 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="51"/>
+      <c r="G43" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="86"/>
-      <c r="G43" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="86"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="51"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="G44" s="29" t="s">
         <v>78</v>
-      </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="G44" s="29" t="s">
-        <v>80</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -3265,83 +3262,83 @@
     </row>
     <row r="45" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="81"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="G46" s="87" t="s">
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="G46" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="43" t="s">
         <v>61</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="81"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
       <c r="G49" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
+        <v>66</v>
+      </c>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
       <c r="G50" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
+        <v>66</v>
+      </c>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31" t="s">
@@ -3352,23 +3349,24 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="51"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
     </row>
     <row r="53" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
+      <c r="A53" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
       <c r="G53" s="45" t="s">
         <v>28</v>
       </c>
@@ -3379,19 +3377,19 @@
     </row>
     <row r="54" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="72"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="67"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
@@ -3417,14 +3415,14 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="62" t="s">
+      <c r="G57" s="57" t="s">
         <v>33</v>
       </c>
       <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
-      <c r="G58" s="62"/>
+      <c r="G58" s="57"/>
       <c r="H58" s="34"/>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3442,19 +3440,19 @@
       <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="63" t="s">
+      <c r="A61" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="65"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="60"/>
     </row>
     <row r="62" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
@@ -3486,45 +3484,45 @@
     </row>
     <row r="64" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="89"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
+      <c r="A65" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
     </row>
     <row r="66" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="89"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="89"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
@@ -3607,7 +3605,34 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
-  <mergeCells count="40">
+  <mergeCells count="43">
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="B49:E49"/>
     <mergeCell ref="G48:K48"/>
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="A65:K67"/>
@@ -3624,30 +3649,6 @@
     <mergeCell ref="A41:K41"/>
     <mergeCell ref="A55:K55"/>
     <mergeCell ref="B50:E50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B22:I22"/>
   </mergeCells>
   <pageMargins left="0.46" right="0.7" top="0.54" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" scale="82" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3680,7 +3681,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="19" r:id="rId5" name="Check Box 2">
+            <control shapeId="3" r:id="rId5" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3702,7 +3703,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="20" r:id="rId6" name="Check Box 4">
+            <control shapeId="1028" r:id="rId6" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3877,410 +3878,410 @@
       <c r="B1" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="A4" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
@@ -4290,13 +4291,13 @@
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
+      <c r="A38" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="3">
